--- a/docs/schedule.xlsx
+++ b/docs/schedule.xlsx
@@ -14,7 +14,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Schedule!$3:$3</definedName>
     <definedName function="false" hidden="false" name="Interval" vbProcedure="false">Schedule!$H$2</definedName>
     <definedName function="false" hidden="false" name="StartTime" vbProcedure="false">Schedule!$F$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Schedule!$3:$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">Schedule!$3:$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="9">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -64,7 +66,7 @@
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="H:MM\ AM/PM;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FFA43253"/>
@@ -94,51 +96,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF5B4F3A"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA43253"/>
-        <bgColor rgb="FF993366"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFA43253"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -149,7 +121,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,12 +145,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
@@ -192,19 +158,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,25 +178,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Heading 1" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Heading 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Heading 3" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -289,7 +253,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF5B4F3A"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -319,10 +283,10 @@
   </sheetPr>
   <dimension ref="B1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -331,7 +295,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="10.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="2.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="8.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -382,7 +346,9 @@
       <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="n">
@@ -397,7 +363,9 @@
       <c r="H4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="n">
@@ -412,7 +380,9 @@
       <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="n">
@@ -427,7 +397,9 @@
       <c r="H6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="n">
@@ -435,14 +407,20 @@
         <v>0.375</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="n">
@@ -467,7 +445,9 @@
       <c r="H8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="n">
@@ -492,7 +472,9 @@
       <c r="H9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="n">
@@ -517,7 +499,9 @@
       <c r="H10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="n">
@@ -536,7 +520,9 @@
       <c r="H11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="n">
@@ -555,7 +541,9 @@
       <c r="H12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="7" t="n">
@@ -574,14 +562,18 @@
       <c r="H13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="n">
         <f aca="false">B13+TIME(0,30,0)</f>
         <v>0.520833333333333</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="D14" s="8" t="s">
         <v>8</v>
       </c>
@@ -591,18 +583,24 @@
       <c r="F14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="H14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="7" t="n">
         <f aca="false">B14+TIME(0,30,0)</f>
         <v>0.541666666666667</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="D15" s="8" t="s">
         <v>8</v>
       </c>
@@ -612,7 +610,9 @@
       <c r="F15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="H15" s="8" t="s">
         <v>8</v>
       </c>
@@ -691,7 +691,9 @@
       <c r="F18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="H18" s="8" t="s">
         <v>8</v>
       </c>
@@ -710,11 +712,15 @@
       <c r="D19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="F19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="H19" s="8" t="s">
         <v>8</v>
       </c>
@@ -987,7 +993,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.250694444444444" header="0.511805555555555" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.252083333333333" header="0.511805555555555" footer="0.3"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
